--- a/5-Software Service Catalog -SS/Forms/FeedBack Survey Log Form F10.xlsx
+++ b/5-Software Service Catalog -SS/Forms/FeedBack Survey Log Form F10.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685CE1-A7DD-4453-AA87-A83C5CD53E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99EEF78-7C17-4839-9AC7-4FAF73031DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{0FD72531-45CD-44DA-85CA-64CA552C7522}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-SW-SC-10" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-10" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'S-SW-SC-10'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-10'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,9 +330,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,7 +374,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:to>
@@ -699,218 +718,218 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -920,7 +939,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/10&amp;R&amp;"Arial,Regular"&amp;16Rev: 0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-SW-SD/10&amp;R&amp;"Arial,Regular"&amp;16Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
